--- a/RPMS/Configuration.xlsx
+++ b/RPMS/Configuration.xlsx
@@ -19,7 +19,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>EntryDate</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,9 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -335,82 +356,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>1ec69b7a-9bd1-4529-b026-46a9e9236d12</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Name1</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>SKU1</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Code1</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Description1</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>07-05-2019 13:54:41</t>
+        </is>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>647722b2-a939-47ab-add2-7ded4d859b17</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Name2</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>07-05-2019 14:05:39</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RPMS/Configuration.xlsx
+++ b/RPMS/Configuration.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Tax" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Product Name</t>
   </si>
@@ -40,6 +41,63 @@
   </si>
   <si>
     <t>EntryDate</t>
+  </si>
+  <si>
+    <t>1ec69b7a-9bd1-4529-b026-46a9e9236d12</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>SKU1</t>
+  </si>
+  <si>
+    <t>Code1</t>
+  </si>
+  <si>
+    <t>Description1</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>07-05-2019 13:54:41</t>
+  </si>
+  <si>
+    <t>647722b2-a939-47ab-add2-7ded4d859b17</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>07-05-2019 14:05:39</t>
+  </si>
+  <si>
+    <t>b6b1c3d9-43c5-402d-8c35-41db0241aa94</t>
+  </si>
+  <si>
+    <t>CocaCola</t>
+  </si>
+  <si>
+    <t>COCAX121333</t>
+  </si>
+  <si>
+    <t>BlackCola</t>
+  </si>
+  <si>
+    <t>Xyz</t>
+  </si>
+  <si>
+    <t>5/7/2019 10:47:36 PM</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -75,8 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,16 +415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -388,67 +447,100 @@
         <v>6</v>
       </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>1ec69b7a-9bd1-4529-b026-46a9e9236d12</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Name1</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>SKU1</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>Code1</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>Description1</t>
-        </is>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>07-05-2019 13:54:41</t>
-        </is>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>647722b2-a939-47ab-add2-7ded4d859b17</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Name2</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>07-05-2019 14:05:39</t>
-        </is>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RPMS/Configuration.xlsx
+++ b/RPMS/Configuration.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Tax" sheetId="2" r:id="rId2"/>
+    <sheet name="ProductType" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Product Name</t>
   </si>
@@ -98,6 +99,36 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>9cdbd0c4-8435-4848-9732-c6545ee41faa</t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>5/8/2019 8:53:31 PM</t>
+  </si>
+  <si>
+    <t>9aae78bb-0d58-49cb-b91e-25b5d43d60c1</t>
+  </si>
+  <si>
+    <t>Service Tax</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>5/8/2019 8:54:03 PM</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>Key</t>
   </si>
 </sst>
 </file>
@@ -515,10 +546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,6 +571,75 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPMS/Configuration.xlsx
+++ b/RPMS/Configuration.xlsx
@@ -48,19 +48,19 @@
     <t>d0f46e1e-20f5-431f-8a56-48e84b657f8c</t>
   </si>
   <si>
-    <t>Name0</t>
-  </si>
-  <si>
     <t>SKUN0</t>
   </si>
   <si>
     <t>Desc0</t>
   </si>
   <si>
-    <t>01-01-0001 00:00:00</t>
-  </si>
-  <si>
     <t>Code0</t>
+  </si>
+  <si>
+    <t>Name Kumar</t>
+  </si>
+  <si>
+    <t>09/05/2019 16:18:52</t>
   </si>
 </sst>
 </file>
@@ -96,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,7 +382,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,26 +414,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/RPMS/Configuration.xlsx
+++ b/RPMS/Configuration.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Tax" sheetId="2" r:id="rId2"/>
     <sheet name="ProductType" sheetId="3" r:id="rId3"/>
+    <sheet name="DiscountCode" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Product Name</t>
   </si>
@@ -129,6 +130,12 @@
   </si>
   <si>
     <t>Key</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>TillDate</t>
   </si>
 </sst>
 </file>
@@ -614,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,4 +650,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RPMS/Configuration.xlsx
+++ b/RPMS/Configuration.xlsx
@@ -378,10 +378,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -390,7 +390,7 @@
     <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -413,27 +413,78 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
+    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>d0f46e1e-20f5-431f-8a56-48e84b657f8c</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Name Kumar1</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>SKUN0</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Code0</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Desc0</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>5/9/2019 9:40:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>49cd1269-d104-4a11-9985-561a807f6c64</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Product2</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>SKU2</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Code2</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Desc2</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>5/9/2019 9:40:28 PM</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/RPMS/Configuration.xlsx
+++ b/RPMS/Configuration.xlsx
@@ -453,16 +453,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" rightToLeft="false">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -485,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -508,41 +508,78 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
+    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>647722b2-a939-47ab-add2-7ded4d859b17</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Name2</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>34324</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>34234fsdf</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>sdfsdf</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5/9/2019 9:48:46 PM</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>b6b1c3d9-43c5-402d-8c35-41db0241aa94</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>CocaCola</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>COCAX121333</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>BlackCola</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Xyz12312312</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>5/10/2019 9:58:26 AM</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -653,10 +690,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -667,7 +704,7 @@
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -687,12 +724,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
     </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>da497bd7-cf51-4335-8185-2da73ef6cce8</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>5/9/2019 12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>5/9/2019 12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>5/9/2019 9:49:21 PM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPMS/Configuration.xlsx
+++ b/RPMS/Configuration.xlsx
@@ -589,16 +589,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" rightToLeft="false">
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -615,38 +615,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
+    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>f63063f9-c515-4d78-96b7-cd3eeb114de0</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>GST</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>5/10/2019 10:07:20 PM</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>4c9d9bdb-e7f9-4a55-85eb-d47acd43fb62</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>GST</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>5/10/2019 10:08:24 PM</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>988769bc-c3b5-48a0-a8bd-fb7177cfba2e</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>GST</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>5/10/2019 10:08:32 PM</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -655,16 +702,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" rightToLeft="false">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -682,6 +729,28 @@
       </c>
       <c r="F1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>dd672663-5e7a-4b09-94e4-c8f011d04580</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>00000000-0000-0000-0000-000000000000</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>5/10/2019 9:34:15 PM</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -691,7 +760,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="E7" sqref="E7"/>
@@ -762,6 +831,60 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>4bc05371-a082-4d11-8ee9-bb8883cd25a0</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>5/10/2019 12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>5/10/2019 12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>5/10/2019 10:09:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>0f4150ab-4a77-498b-bb1e-af1c1c051fe6</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>5/10/2019 12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>5/10/2019 12:00:00 AM</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>5/10/2019 10:09:03 PM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPMS/Configuration.xlsx
+++ b/RPMS/Configuration.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
     <sheet name="Tax" sheetId="2" r:id="rId2"/>
     <sheet name="ProductType" sheetId="3" r:id="rId3"/>
     <sheet name="DiscountCode" sheetId="4" r:id="rId4"/>
+    <sheet name="Vendor" sheetId="5" r:id="rId5"/>
+    <sheet name="StockIn" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
   <si>
     <t>Product Name</t>
   </si>
@@ -72,9 +74,6 @@
     <t>Name2</t>
   </si>
   <si>
-    <t>07-05-2019 14:05:39</t>
-  </si>
-  <si>
     <t>b6b1c3d9-43c5-402d-8c35-41db0241aa94</t>
   </si>
   <si>
@@ -87,12 +86,6 @@
     <t>BlackCola</t>
   </si>
   <si>
-    <t>Xyz</t>
-  </si>
-  <si>
-    <t>5/7/2019 10:47:36 PM</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -102,30 +95,9 @@
     <t>Value</t>
   </si>
   <si>
-    <t>9cdbd0c4-8435-4848-9732-c6545ee41faa</t>
-  </si>
-  <si>
     <t>GST</t>
   </si>
   <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>5/8/2019 8:53:31 PM</t>
-  </si>
-  <si>
-    <t>9aae78bb-0d58-49cb-b91e-25b5d43d60c1</t>
-  </si>
-  <si>
-    <t>Service Tax</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>5/8/2019 8:54:03 PM</t>
-  </si>
-  <si>
     <t>ProductID</t>
   </si>
   <si>
@@ -136,6 +108,213 @@
   </si>
   <si>
     <t>TillDate</t>
+  </si>
+  <si>
+    <t>34324</t>
+  </si>
+  <si>
+    <t>34234fsdf</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>5/9/2019 9:48:46 PM</t>
+  </si>
+  <si>
+    <t>Xyz12312312</t>
+  </si>
+  <si>
+    <t>5/10/2019 9:58:26 AM</t>
+  </si>
+  <si>
+    <t>f63063f9-c515-4d78-96b7-cd3eeb114de0</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>5/10/2019 10:07:20 PM</t>
+  </si>
+  <si>
+    <t>4c9d9bdb-e7f9-4a55-85eb-d47acd43fb62</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>5/10/2019 10:08:24 PM</t>
+  </si>
+  <si>
+    <t>988769bc-c3b5-48a0-a8bd-fb7177cfba2e</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5/10/2019 10:08:32 PM</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>da497bd7-cf51-4335-8185-2da73ef6cce8</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>5/9/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>5/9/2019 9:49:21 PM</t>
+  </si>
+  <si>
+    <t>4bc05371-a082-4d11-8ee9-bb8883cd25a0</t>
+  </si>
+  <si>
+    <t>5/10/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>5/10/2019 10:09:00 PM</t>
+  </si>
+  <si>
+    <t>0f4150ab-4a77-498b-bb1e-af1c1c051fe6</t>
+  </si>
+  <si>
+    <t>5/10/2019 10:09:03 PM</t>
+  </si>
+  <si>
+    <t>3daeb03d-fb5a-4cd8-93e6-08c2a0356506</t>
+  </si>
+  <si>
+    <t>5/11/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>5/11/2019 2:20:59 PM</t>
+  </si>
+  <si>
+    <t>bccd3c0a-e0ae-4bf0-90ab-15584cb173e2</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>5/11/2019 2:21:22 PM</t>
+  </si>
+  <si>
+    <t>dfcb8713-4fd5-44cc-8c1d-8abf76d2ddbb</t>
+  </si>
+  <si>
+    <t>raja</t>
+  </si>
+  <si>
+    <t>6/7/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>6/8/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>5/11/2019 2:37:31 PM</t>
+  </si>
+  <si>
+    <t>65564071-df5c-45c2-a8a3-0cd95fcdd5ff</t>
+  </si>
+  <si>
+    <t>5/11/2019 2:40:50 PM</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>e7a93fbd-7769-49b7-bba0-20b2b78a81ea</t>
+  </si>
+  <si>
+    <t>Raja</t>
+  </si>
+  <si>
+    <t>Wb 41</t>
+  </si>
+  <si>
+    <t>7503327051</t>
+  </si>
+  <si>
+    <t>rajababuemail@gmail.com</t>
+  </si>
+  <si>
+    <t>GST123123</t>
+  </si>
+  <si>
+    <t>5/11/2019 4:02:59 PM</t>
+  </si>
+  <si>
+    <t>2601dedb-3533-48f8-ae2f-5498c3102db3</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>8800282570</t>
+  </si>
+  <si>
+    <t>mr.raj11l@gmail.com</t>
+  </si>
+  <si>
+    <t>5/11/2019 4:03:42 PM</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>VendorID</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>CostPrice</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1/1/0001 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>5/11/2019 4:32:26 PM</t>
+  </si>
+  <si>
+    <t>614e2fc8-f9b0-4884-999d-b958ad292db3</t>
+  </si>
+  <si>
+    <t>SSW</t>
+  </si>
+  <si>
+    <t>5/31/2019 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>5/11/2019 4:56:24 PM</t>
+  </si>
+  <si>
+    <t>c1ee76dc-38fb-4191-804a-86922537a227</t>
+  </si>
+  <si>
+    <t>AAS</t>
+  </si>
+  <si>
+    <t>5/11/2019 4:59:02 PM</t>
   </si>
 </sst>
 </file>
@@ -453,16 +632,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="false">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -485,7 +664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -508,78 +687,50 @@
         <v>13</v>
       </c>
     </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>647722b2-a939-47ab-add2-7ded4d859b17</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Name2</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>34324</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>34234fsdf</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5/9/2019 9:48:46 PM</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:7" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>b6b1c3d9-43c5-402d-8c35-41db0241aa94</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>CocaCola</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>COCAX121333</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>BlackCola</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Xyz12312312</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>5/10/2019 9:58:26 AM</t>
-        </is>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -589,24 +740,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="false">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -615,85 +766,55 @@
         <v>6</v>
       </c>
     </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>f63063f9-c515-4d78-96b7-cd3eeb114de0</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>GST</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>5/10/2019 10:07:20 PM</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:5" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>4c9d9bdb-e7f9-4a55-85eb-d47acd43fb62</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>GST</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>5/10/2019 10:08:24 PM</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>988769bc-c3b5-48a0-a8bd-fb7177cfba2e</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>GST</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>5/10/2019 10:08:32 PM</t>
-        </is>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -702,27 +823,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="false">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row spans="1:6" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -731,27 +852,19 @@
         <v>6</v>
       </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>dd672663-5e7a-4b09-94e4-c8f011d04580</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>00000000-0000-0000-0000-000000000000</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>5/10/2019 9:34:15 PM</t>
-        </is>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -759,32 +872,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:6" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -793,99 +907,351 @@
         <v>6</v>
       </c>
     </row>
-    <row spans="1:6" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>da497bd7-cf51-4335-8185-2da73ef6cce8</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Summer</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>5/9/2019 12:00:00 AM</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>5/9/2019 12:00:00 AM</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>5/9/2019 9:49:21 PM</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>4bc05371-a082-4d11-8ee9-bb8883cd25a0</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>5/10/2019 12:00:00 AM</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>5/10/2019 12:00:00 AM</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>5/10/2019 10:09:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>0f4150ab-4a77-498b-bb1e-af1c1c051fe6</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>5/10/2019 12:00:00 AM</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>5/10/2019 12:00:00 AM</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>5/10/2019 10:09:03 PM</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>